--- a/Invoices/P987007_Ngoc.xlsx
+++ b/Invoices/P987007_Ngoc.xlsx
@@ -480,10 +480,10 @@
         <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>250</v>
+        <v>1470</v>
       </c>
       <c r="E2" t="n">
-        <v>80.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
